--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H2">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>24.759128</v>
+        <v>0.006053333333333333</v>
       </c>
       <c r="N2">
-        <v>74.277384</v>
+        <v>0.01816</v>
       </c>
       <c r="O2">
-        <v>0.9895671066967037</v>
+        <v>0.0002373030766683641</v>
       </c>
       <c r="P2">
-        <v>0.9895671066967037</v>
+        <v>0.0002373030766683641</v>
       </c>
       <c r="Q2">
-        <v>130.1479491692347</v>
+        <v>0.006310567715555555</v>
       </c>
       <c r="R2">
-        <v>1171.331542523112</v>
+        <v>0.05679510944</v>
       </c>
       <c r="S2">
-        <v>0.003708758897853858</v>
+        <v>1.820225397037384E-07</v>
       </c>
       <c r="T2">
-        <v>0.003708758897853857</v>
+        <v>1.820225397037385E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H3">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2610326666666666</v>
+        <v>24.759128</v>
       </c>
       <c r="N3">
-        <v>0.783098</v>
+        <v>74.277384</v>
       </c>
       <c r="O3">
-        <v>0.0104328933032964</v>
+        <v>0.970608576546119</v>
       </c>
       <c r="P3">
-        <v>0.0104328933032964</v>
+        <v>0.9706085765461191</v>
       </c>
       <c r="Q3">
-        <v>1.372135005434889</v>
+        <v>25.81125889131733</v>
       </c>
       <c r="R3">
-        <v>12.349215048914</v>
+        <v>232.301330021856</v>
       </c>
       <c r="S3">
-        <v>3.91010226664897E-05</v>
+        <v>0.000744502096818823</v>
       </c>
       <c r="T3">
-        <v>3.91010226664897E-05</v>
+        <v>0.0007445020968188232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1312.703450666667</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H4">
-        <v>3938.110352</v>
+        <v>3.127484</v>
       </c>
       <c r="I4">
-        <v>0.93593996730609</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J4">
-        <v>0.9359399673060897</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.759128</v>
+        <v>0.7436886666666668</v>
       </c>
       <c r="N4">
-        <v>74.277384</v>
+        <v>2.231066</v>
       </c>
       <c r="O4">
-        <v>0.9895671066967037</v>
+        <v>0.02915412037721258</v>
       </c>
       <c r="P4">
-        <v>0.9895671066967037</v>
+        <v>0.02915412037721259</v>
       </c>
       <c r="Q4">
-        <v>32501.39276109769</v>
+        <v>0.7752914686604445</v>
       </c>
       <c r="R4">
-        <v>292512.5348498792</v>
+        <v>6.977623217944</v>
       </c>
       <c r="S4">
-        <v>0.9261754054888949</v>
+        <v>2.23625715620408E-05</v>
       </c>
       <c r="T4">
-        <v>0.9261754054888947</v>
+        <v>2.236257156204081E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>3938.110352</v>
       </c>
       <c r="I5">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J5">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2610326666666666</v>
+        <v>0.006053333333333333</v>
       </c>
       <c r="N5">
-        <v>0.783098</v>
+        <v>0.01816</v>
       </c>
       <c r="O5">
-        <v>0.0104328933032964</v>
+        <v>0.0002373030766683641</v>
       </c>
       <c r="P5">
-        <v>0.0104328933032964</v>
+        <v>0.0002373030766683641</v>
       </c>
       <c r="Q5">
-        <v>342.6584822700551</v>
+        <v>7.946231554702222</v>
       </c>
       <c r="R5">
-        <v>3083.926340430496</v>
+        <v>71.51608399231999</v>
       </c>
       <c r="S5">
-        <v>0.009764561817195157</v>
+        <v>0.0002292017634317629</v>
       </c>
       <c r="T5">
-        <v>0.009764561817195155</v>
+        <v>0.0002292017634317629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>84.59089266666666</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H6">
-        <v>253.772678</v>
+        <v>3938.110352</v>
       </c>
       <c r="I6">
-        <v>0.06031217277338979</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J6">
-        <v>0.06031217277338978</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>74.277384</v>
       </c>
       <c r="O6">
-        <v>0.9895671066967037</v>
+        <v>0.970608576546119</v>
       </c>
       <c r="P6">
-        <v>0.9895671066967037</v>
+        <v>0.9706085765461191</v>
       </c>
       <c r="Q6">
-        <v>2094.396739168261</v>
+        <v>32501.39276109769</v>
       </c>
       <c r="R6">
-        <v>18849.57065251435</v>
+        <v>292512.5348498792</v>
       </c>
       <c r="S6">
-        <v>0.05968294230995504</v>
+        <v>0.9374728742234695</v>
       </c>
       <c r="T6">
-        <v>0.05968294230995503</v>
+        <v>0.9374728742234696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,46 +844,232 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>84.59089266666666</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H7">
-        <v>253.772678</v>
+        <v>3938.110352</v>
       </c>
       <c r="I7">
-        <v>0.06031217277338979</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J7">
-        <v>0.06031217277338978</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2610326666666666</v>
+        <v>0.7436886666666668</v>
       </c>
       <c r="N7">
-        <v>0.783098</v>
+        <v>2.231066</v>
       </c>
       <c r="O7">
-        <v>0.0104328933032964</v>
+        <v>0.02915412037721258</v>
       </c>
       <c r="P7">
-        <v>0.0104328933032964</v>
+        <v>0.02915412037721259</v>
       </c>
       <c r="Q7">
-        <v>22.08098628849377</v>
+        <v>976.2426789550259</v>
       </c>
       <c r="R7">
-        <v>198.728876596444</v>
+        <v>8786.184110595232</v>
       </c>
       <c r="S7">
-        <v>0.0006292304634347537</v>
+        <v>0.02815882497426484</v>
       </c>
       <c r="T7">
-        <v>0.0006292304634347537</v>
+        <v>0.02815882497426484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>45.356022</v>
+      </c>
+      <c r="H8">
+        <v>136.068066</v>
+      </c>
+      <c r="I8">
+        <v>0.03337205234791334</v>
+      </c>
+      <c r="J8">
+        <v>0.03337205234791334</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.006053333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.01816</v>
+      </c>
+      <c r="O8">
+        <v>0.0002373030766683641</v>
+      </c>
+      <c r="P8">
+        <v>0.0002373030766683641</v>
+      </c>
+      <c r="Q8">
+        <v>0.27455511984</v>
+      </c>
+      <c r="R8">
+        <v>2.47099607856</v>
+      </c>
+      <c r="S8">
+        <v>7.91929069689754E-06</v>
+      </c>
+      <c r="T8">
+        <v>7.91929069689754E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>45.356022</v>
+      </c>
+      <c r="H9">
+        <v>136.068066</v>
+      </c>
+      <c r="I9">
+        <v>0.03337205234791334</v>
+      </c>
+      <c r="J9">
+        <v>0.03337205234791334</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>24.759128</v>
+      </c>
+      <c r="N9">
+        <v>74.277384</v>
+      </c>
+      <c r="O9">
+        <v>0.970608576546119</v>
+      </c>
+      <c r="P9">
+        <v>0.9706085765461191</v>
+      </c>
+      <c r="Q9">
+        <v>1122.975554268816</v>
+      </c>
+      <c r="R9">
+        <v>10106.77998841934</v>
+      </c>
+      <c r="S9">
+        <v>0.03239120022583073</v>
+      </c>
+      <c r="T9">
+        <v>0.03239120022583074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>45.356022</v>
+      </c>
+      <c r="H10">
+        <v>136.068066</v>
+      </c>
+      <c r="I10">
+        <v>0.03337205234791334</v>
+      </c>
+      <c r="J10">
+        <v>0.03337205234791334</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7436886666666668</v>
+      </c>
+      <c r="N10">
+        <v>2.231066</v>
+      </c>
+      <c r="O10">
+        <v>0.02915412037721258</v>
+      </c>
+      <c r="P10">
+        <v>0.02915412037721259</v>
+      </c>
+      <c r="Q10">
+        <v>33.730759526484</v>
+      </c>
+      <c r="R10">
+        <v>303.576835738356</v>
+      </c>
+      <c r="S10">
+        <v>0.0009729328313857052</v>
+      </c>
+      <c r="T10">
+        <v>0.0009729328313857053</v>
       </c>
     </row>
   </sheetData>
